--- a/Control de Compras y amortizacion.xlsx
+++ b/Control de Compras y amortizacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\I Semestre 2018\Mantenimiento de sistemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\I Semestre 2018\Mantenimiento de sistemas\gitHub\ManteSistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Artículo</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Jumpers</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Tornillos</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -427,11 +436,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,9 +459,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,19 +469,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -483,13 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -507,9 +495,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -825,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,46 +862,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="20"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="51" t="s">
+      <c r="E3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
@@ -901,33 +912,33 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="42">
-        <v>1</v>
-      </c>
-      <c r="D4" s="42">
+      <c r="C4" s="33">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33">
         <v>3500</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="27">
         <f>C4*D4</f>
         <v>3500</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="28">
-        <v>1</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="21">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="21">
         <v>1500</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="21">
         <f>J4*H4</f>
         <v>1500</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -935,355 +946,429 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>2000</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="28">
         <f>C5*D5</f>
         <v>12000</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="22">
         <v>3</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="22">
         <v>2500</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="22">
         <f>J5*H5</f>
         <v>7500</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="37"/>
-      <c r="H6" s="29">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>125</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" ref="E6:E7" si="0">C6*D6</f>
+        <v>2000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="22">
         <v>4</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="22">
         <v>2850</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="22">
         <f>J6*H6</f>
         <v>11400</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="38"/>
-      <c r="H7" s="29">
-        <v>1</v>
-      </c>
-      <c r="I7" s="29" t="s">
+      <c r="B7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <v>810</v>
+      </c>
+      <c r="E7" s="50">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="22">
         <v>300</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="22">
         <f>H7*J7</f>
         <v>300</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <f>SUM(E4:E7)</f>
-        <v>15500</v>
-      </c>
-      <c r="H8" s="29">
-        <v>1</v>
-      </c>
-      <c r="I8" s="29" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="22">
         <v>660</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="22">
         <f>H8*J8</f>
         <v>660</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H9" s="29">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="22">
         <v>4000</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="22">
         <f>H9*J9</f>
         <v>4000</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H10" s="29">
-        <v>1</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="22">
         <v>800</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="22">
         <f>H10*J10</f>
         <v>800</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="29">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="H11" s="22">
         <v>4</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="22">
         <v>100</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="22">
         <f>J11*H11</f>
         <v>400</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="H12" s="29">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="H12" s="22">
         <v>16</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="22">
         <v>50</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="22">
         <f>H12*J12</f>
         <v>800</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="30">
-        <v>1</v>
-      </c>
-      <c r="I13" s="30" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="H13" s="23">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="23">
         <v>300</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="22">
         <f>J13*H13</f>
         <v>300</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="23">
+        <v>300</v>
+      </c>
+      <c r="K14" s="22">
+        <v>300</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="H15" s="23">
+        <v>2</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="23">
+        <v>200</v>
+      </c>
+      <c r="K15" s="22">
+        <f>H15*J15</f>
+        <v>400</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="H16" s="22">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="22">
+        <v>500</v>
+      </c>
+      <c r="K16" s="22">
+        <v>500</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52">
+        <f>SUM(E4:E7)</f>
+        <v>18310</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="22">
+        <v>3500</v>
+      </c>
+      <c r="K17" s="22">
+        <v>500</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="15">
+        <f>SUM(K4:K17)</f>
+        <v>29360</v>
+      </c>
+      <c r="L18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="str">
         <f>+TEXT("1/4/2018","mmm")</f>
         <v>abr</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="39">
-        <f>K18+C14</f>
+      <c r="C21" s="27"/>
+      <c r="D21" s="30">
+        <f>$K$18+C21</f>
         <v>29360</v>
       </c>
-      <c r="E14" s="34">
-        <f>$D$14/3</f>
+      <c r="E21" s="25">
+        <f>$D$21/3</f>
         <v>9786.6666666666661</v>
       </c>
-      <c r="F14" s="39">
-        <f>+D14-E14</f>
+      <c r="F21" s="30">
+        <f>+D21-E21</f>
         <v>19573.333333333336</v>
       </c>
-      <c r="H14" s="30">
-        <v>1</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="30">
-        <v>300</v>
-      </c>
-      <c r="K14" s="29">
-        <v>300</v>
-      </c>
-      <c r="L14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="str">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="str">
         <f>+TEXT("1/5/2018","mmm")</f>
         <v>may</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40">
-        <f>+F14+C15</f>
+      <c r="C22" s="28"/>
+      <c r="D22" s="31">
+        <f>+F21+C22</f>
         <v>19573.333333333336</v>
       </c>
-      <c r="E15" s="35">
-        <f t="shared" ref="E15:E16" si="0">$D$14/3</f>
+      <c r="E22" s="26">
+        <f>$D$21/3</f>
         <v>9786.6666666666661</v>
       </c>
-      <c r="F15" s="40">
-        <f>+D15-E15</f>
+      <c r="F22" s="31">
+        <f>+D22-E22</f>
         <v>9786.6666666666697</v>
       </c>
-      <c r="H15" s="30">
-        <v>2</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="30">
-        <v>200</v>
-      </c>
-      <c r="K15" s="29">
-        <f>H15*J15</f>
-        <v>400</v>
-      </c>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="str">
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="str">
         <f>+TEXT("1/6/2018","mmm")</f>
         <v>jun</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="41">
-        <f>+F15+C16</f>
+      <c r="C23" s="29"/>
+      <c r="D23" s="32">
+        <f>+F22+C23</f>
         <v>9786.6666666666697</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
+      <c r="E23" s="26">
+        <f>$D$21/3</f>
         <v>9786.6666666666661</v>
       </c>
-      <c r="F16" s="41">
-        <f t="shared" ref="F16" si="1">+D16-E16</f>
+      <c r="F23" s="32">
+        <f>+D23-E23</f>
         <v>0</v>
-      </c>
-      <c r="H16" s="29">
-        <v>1</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="29">
-        <v>500</v>
-      </c>
-      <c r="K16" s="29">
-        <v>500</v>
-      </c>
-      <c r="L16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="29">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="29">
-        <v>3500</v>
-      </c>
-      <c r="K17" s="29">
-        <v>500</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="18">
-        <f>SUM(K4:K17)</f>
-        <v>29360</v>
-      </c>
-      <c r="L18" s="33">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L18">
     <cfRule type="iconSet" priority="1">
@@ -1304,7 +1389,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,101 +1400,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="3" t="str">
         <f>+TEXT("1/4/2018","mmm")</f>
         <v>abr</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="3" t="str">
         <f>+TEXT("1/5/2018","mmm")</f>
         <v>may</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="4" t="str">
         <f>+TEXT("1/6/2018","mmm")</f>
         <v>jun</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <f>Cálculos!$E$14/2</f>
-        <v>4893.333333333333</v>
-      </c>
-      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
         <f>Cálculos!$E$14/2</f>
-        <v>4893.333333333333</v>
-      </c>
-      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <f>Cálculos!$E$14/2</f>
-        <v>4893.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <f>+C3*COUNTIF(C4:C7,"=1")</f>
-        <v>4893.333333333333</v>
-      </c>
-      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
         <f t="shared" ref="D8:E8" si="0">+D3*COUNTIF(D4:D7,"=1")</f>
-        <v>4893.333333333333</v>
-      </c>
-      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
-        <v>4893.333333333333</v>
-      </c>
-      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
         <f>SUM(C8:E8)</f>
-        <v>14680</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Control de Compras y amortizacion.xlsx
+++ b/Control de Compras y amortizacion.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Artículo</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Tornillos</t>
+  </si>
+  <si>
+    <t>Protoboard pequeña</t>
   </si>
 </sst>
 </file>
@@ -498,6 +501,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,20 +515,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -838,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,19 +865,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -987,7 +990,7 @@
         <v>125</v>
       </c>
       <c r="E6" s="28">
-        <f t="shared" ref="E6:E7" si="0">C6*D6</f>
+        <f t="shared" ref="E6:E10" si="0">C6*D6</f>
         <v>2000</v>
       </c>
       <c r="F6" t="s">
@@ -1011,16 +1014,16 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="49">
-        <v>1</v>
-      </c>
-      <c r="D7" s="49">
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43">
         <v>810</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
@@ -1045,10 +1048,22 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="43">
+        <v>4</v>
+      </c>
+      <c r="D8" s="43">
+        <v>2750</v>
+      </c>
+      <c r="E8" s="43">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="22">
         <v>1</v>
       </c>
@@ -1067,10 +1082,22 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43">
+        <v>2150</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="22">
         <v>1</v>
       </c>
@@ -1089,10 +1116,22 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="43">
+        <v>12</v>
+      </c>
+      <c r="D10" s="43">
+        <v>125</v>
+      </c>
+      <c r="E10" s="43">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="22">
         <v>1</v>
       </c>
@@ -1111,10 +1150,10 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="H11" s="22">
         <v>4</v>
       </c>
@@ -1133,10 +1172,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="H12" s="22">
         <v>16</v>
       </c>
@@ -1155,10 +1194,10 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="H13" s="23">
         <v>1</v>
       </c>
@@ -1177,10 +1216,10 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="H14" s="23">
         <v>1</v>
       </c>
@@ -1198,10 +1237,10 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="H15" s="23">
         <v>2</v>
       </c>
@@ -1220,10 +1259,10 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="H16" s="22">
         <v>1</v>
       </c>
@@ -1241,16 +1280,16 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52">
-        <f>SUM(E4:E7)</f>
-        <v>18310</v>
-      </c>
-      <c r="F17" s="53"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46">
+        <f>SUM(E4:E10)</f>
+        <v>32960</v>
+      </c>
+      <c r="F17" s="47"/>
       <c r="H17" s="22">
         <v>1</v>
       </c>
@@ -1282,13 +1321,13 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -1389,7 +1428,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
